--- a/natmiOut/OldD4/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H2">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I2">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J2">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N2">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O2">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P2">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q2">
-        <v>496.8295851035522</v>
+        <v>609.13709331183</v>
       </c>
       <c r="R2">
-        <v>496.8295851035522</v>
+        <v>5482.233839806469</v>
       </c>
       <c r="S2">
-        <v>0.09123415220087375</v>
+        <v>0.09194627950110693</v>
       </c>
       <c r="T2">
-        <v>0.09123415220087375</v>
+        <v>0.09617554937961542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H3">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I3">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J3">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N3">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P3">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q3">
-        <v>571.1255691817137</v>
+        <v>751.574909071314</v>
       </c>
       <c r="R3">
-        <v>571.1255691817137</v>
+        <v>6764.174181641825</v>
       </c>
       <c r="S3">
-        <v>0.1048773234663045</v>
+        <v>0.1134465745301674</v>
       </c>
       <c r="T3">
-        <v>0.1048773234663045</v>
+        <v>0.1186647974216617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H4">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I4">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J4">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N4">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O4">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P4">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q4">
-        <v>242.8005713586187</v>
+        <v>405.913816501524</v>
       </c>
       <c r="R4">
-        <v>242.8005713586187</v>
+        <v>3653.224348513716</v>
       </c>
       <c r="S4">
-        <v>0.04458612157159346</v>
+        <v>0.06127071497565838</v>
       </c>
       <c r="T4">
-        <v>0.04458612157159346</v>
+        <v>0.06408899528767592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H5">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I5">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J5">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N5">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O5">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P5">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q5">
-        <v>350.1585276760472</v>
+        <v>446.602968126648</v>
       </c>
       <c r="R5">
-        <v>350.1585276760472</v>
+        <v>4019.426713139832</v>
       </c>
       <c r="S5">
-        <v>0.06430055167059322</v>
+        <v>0.06741254437508942</v>
       </c>
       <c r="T5">
-        <v>0.06430055167059322</v>
+        <v>0.07051333154022699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H6">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I6">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J6">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N6">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O6">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P6">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q6">
-        <v>276.2539170784368</v>
+        <v>336.349092879261</v>
       </c>
       <c r="R6">
-        <v>276.2539170784368</v>
+        <v>2018.094557275566</v>
       </c>
       <c r="S6">
-        <v>0.05072924936941612</v>
+        <v>0.05077025852370579</v>
       </c>
       <c r="T6">
-        <v>0.05072924936941612</v>
+        <v>0.03540369827654798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.731137135584</v>
+        <v>33.645613</v>
       </c>
       <c r="H7">
-        <v>31.731137135584</v>
+        <v>100.936839</v>
       </c>
       <c r="I7">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="J7">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N7">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O7">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P7">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q7">
-        <v>899.828607398647</v>
+        <v>973.6687684023717</v>
       </c>
       <c r="R7">
-        <v>899.828607398647</v>
+        <v>8763.018915621344</v>
       </c>
       <c r="S7">
-        <v>0.1652379459347166</v>
+        <v>0.1469705616420132</v>
       </c>
       <c r="T7">
-        <v>0.1652379459347166</v>
+        <v>0.1537307935160235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.731137135584</v>
+        <v>33.645613</v>
       </c>
       <c r="H8">
-        <v>31.731137135584</v>
+        <v>100.936839</v>
       </c>
       <c r="I8">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="J8">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N8">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O8">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P8">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q8">
-        <v>1034.389136587806</v>
+        <v>1201.346994153539</v>
       </c>
       <c r="R8">
-        <v>1034.389136587806</v>
+        <v>10812.12294738185</v>
       </c>
       <c r="S8">
-        <v>0.1899476576112365</v>
+        <v>0.1813374816852756</v>
       </c>
       <c r="T8">
-        <v>0.1899476576112365</v>
+        <v>0.1896784950824179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.731137135584</v>
+        <v>33.645613</v>
       </c>
       <c r="H9">
-        <v>31.731137135584</v>
+        <v>100.936839</v>
       </c>
       <c r="I9">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="J9">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N9">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O9">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P9">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q9">
-        <v>439.7461555267184</v>
+        <v>648.8286629233741</v>
       </c>
       <c r="R9">
-        <v>439.7461555267184</v>
+        <v>5839.457966310366</v>
       </c>
       <c r="S9">
-        <v>0.080751768586228</v>
+        <v>0.09793752875092471</v>
       </c>
       <c r="T9">
-        <v>0.080751768586228</v>
+        <v>0.1024423792197994</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.731137135584</v>
+        <v>33.645613</v>
       </c>
       <c r="H10">
-        <v>31.731137135584</v>
+        <v>100.936839</v>
       </c>
       <c r="I10">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="J10">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N10">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O10">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P10">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q10">
-        <v>634.1865898783518</v>
+        <v>713.8678086020147</v>
       </c>
       <c r="R10">
-        <v>634.1865898783518</v>
+        <v>6424.810277418132</v>
       </c>
       <c r="S10">
-        <v>0.1164573882061698</v>
+        <v>0.1077548712387515</v>
       </c>
       <c r="T10">
-        <v>0.1164573882061698</v>
+        <v>0.1127112918102562</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.731137135584</v>
+        <v>33.645613</v>
       </c>
       <c r="H11">
-        <v>31.731137135584</v>
+        <v>100.936839</v>
       </c>
       <c r="I11">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="J11">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N11">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O11">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P11">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q11">
-        <v>500.3348933846206</v>
+        <v>537.6336634442235</v>
       </c>
       <c r="R11">
-        <v>500.3348933846206</v>
+        <v>3225.801980665341</v>
       </c>
       <c r="S11">
-        <v>0.09187784138286822</v>
+        <v>0.081153184777307</v>
       </c>
       <c r="T11">
-        <v>0.09187784138286822</v>
+        <v>0.05659066846577503</v>
       </c>
     </row>
   </sheetData>
